--- a/biology/Botanique/Aextoxicon_punctatum/Aextoxicon_punctatum.xlsx
+++ b/biology/Botanique/Aextoxicon_punctatum/Aextoxicon_punctatum.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Aextoxicon punctatum est une espèce de plantes de la famille des Aextoxicaceae. C'est un grand arbre sempervirent originaire des forêts tempérées du centre du Chili où il est appelé olivillo en espagnol et tique en mapuche. C'est la seule espèce actuellement décrite du genre Aextoxicon
 La famille des Aextoxicaceae est une famille monospécifique. Pour la classification phylogénétique APG II (2003) cette famille est directement rattachée au noyau des Dicotylédones vraies.
